--- a/medicine/Soins infirmiers et profession infirmière/Institut_de_formation_des_professionnels_de_santé/Institut_de_formation_des_professionnels_de_santé.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Institut_de_formation_des_professionnels_de_santé/Institut_de_formation_des_professionnels_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_formation_des_professionnels_de_sant%C3%A9</t>
+          <t>Institut_de_formation_des_professionnels_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un institut de formation des professionnels de santé (IFPS) en France est une école spécialisée formant aux professions paramédicales. Ces instituts délivrent les diplômes d’État indispensables dans l'exercice des métiers paramédicaux. Ils sont rattachés auprès du Ministère de la Santé, des agences régionales de santé, ou auprès des centres hospitaliers universitaires (CHU)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un institut de formation des professionnels de santé (IFPS) en France est une école spécialisée formant aux professions paramédicales. Ces instituts délivrent les diplômes d’État indispensables dans l'exercice des métiers paramédicaux. Ils sont rattachés auprès du Ministère de la Santé, des agences régionales de santé, ou auprès des centres hospitaliers universitaires (CHU).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_de_formation_des_professionnels_de_sant%C3%A9</t>
+          <t>Institut_de_formation_des_professionnels_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Types d'institut de formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les instituts de formation des professionnels de santé regroupe tous les instituts de formation paramédicaux en France tels que[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les instituts de formation des professionnels de santé regroupe tous les instituts de formation paramédicaux en France tels que, :
 Institut de formation en soins infirmiers (IFSI)
 Institut de formation d'aides soignants (IFAS)
 Institut de formation d'auxiliaires de puériculture (IFAP)
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_de_formation_des_professionnels_de_sant%C3%A9</t>
+          <t>Institut_de_formation_des_professionnels_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,27 +565,29 @@
           <t>Diplômes délivrés par les instituts de formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux de ces diplômes sont des diplômes nationaux de l'enseignement supérieur :
-diplôme d’État d'infirmier en pratique avancée[4] ;
-diplôme d’État d'audioprothésiste[5].
+diplôme d’État d'infirmier en pratique avancée ;
+diplôme d’État d'audioprothésiste.
 Autres diplômes :
-diplôme d'État d'infirmier[6] ;
-diplôme d'État d'infirmier de bloc opératoire[7] ;
-diplôme d'État d'infirmier anesthésiste[8] ;
-diplôme d'État de puéricultrice[8] ;
-diplôme d'État d'ergothérapeute[9] ;
-diplôme d'État de psychomotricien[10] ;
-diplôme d'État de manipulateur d'électroradiologie médicale[11] ;
-diplôme d'État de pédicure-podologue[12] ;
-diplôme d'État de masseur-kinésithérapeute[13] ;
-diplôme d'État de diététicien[14] (en cours de création)[15] ;
-diplôme d'État de technicien de laboratoire médical[16] ;
-diplôme d'État d'aide-soignant[17] ;
-diplôme d'État d'auxiliaire de puériculture[18] ;
-diplôme d'État d'ambulancier[19].
-D’autres professions paramédicales réglementées nécessitent un diplôme national de l’enseignement supérieur : le certificat de capacité d’orthophoniste[20] et le certificat de capacité d’orthoptiste[21].
+diplôme d'État d'infirmier ;
+diplôme d'État d'infirmier de bloc opératoire ;
+diplôme d'État d'infirmier anesthésiste ;
+diplôme d'État de puéricultrice ;
+diplôme d'État d'ergothérapeute ;
+diplôme d'État de psychomotricien ;
+diplôme d'État de manipulateur d'électroradiologie médicale ;
+diplôme d'État de pédicure-podologue ;
+diplôme d'État de masseur-kinésithérapeute ;
+diplôme d'État de diététicien (en cours de création) ;
+diplôme d'État de technicien de laboratoire médical ;
+diplôme d'État d'aide-soignant ;
+diplôme d'État d'auxiliaire de puériculture ;
+diplôme d'État d'ambulancier.
+D’autres professions paramédicales réglementées nécessitent un diplôme national de l’enseignement supérieur : le certificat de capacité d’orthophoniste et le certificat de capacité d’orthoptiste.
 </t>
         </is>
       </c>
